--- a/Base.xlsx
+++ b/Base.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="172">
   <si>
     <t>Sessão</t>
   </si>
@@ -104,19 +104,223 @@
     <t>YOKI DISTRIBUIDORA DE ALIMENTOS LTDA.</t>
   </si>
   <si>
+    <t>ATIBAIA</t>
+  </si>
+  <si>
+    <t>RONALDO SILVA PEREZ</t>
+  </si>
+  <si>
+    <t>ESU 5084</t>
+  </si>
+  <si>
+    <t>MOGI MIRIM</t>
+  </si>
+  <si>
+    <t>Quantidade Itens</t>
+  </si>
+  <si>
+    <t>CACAU SHOW</t>
+  </si>
+  <si>
+    <t>MOGI GUACU</t>
+  </si>
+  <si>
+    <t>CARREFOUR COM E INDUSTRIA LTDA</t>
+  </si>
+  <si>
+    <t>CAMPINAS</t>
+  </si>
+  <si>
+    <t>CARREFOUR COM E INDUSTRIA AS 07:00 HRS</t>
+  </si>
+  <si>
+    <t>ROOSEVELT CLEBERSON BARBOSA DA COSTA</t>
+  </si>
+  <si>
+    <t>EYI3J51</t>
+  </si>
+  <si>
+    <t>SUMARE</t>
+  </si>
+  <si>
+    <t>TAUSTE SUPERMERCADOS LTDA</t>
+  </si>
+  <si>
     <t>ITU</t>
   </si>
   <si>
-    <t>CARREFOUR COMERCIO E INDUSTRIA AS 07:00 HRS</t>
-  </si>
-  <si>
-    <t>JOSÉ MOISES SOARES</t>
-  </si>
-  <si>
-    <t>DPM2A41</t>
-  </si>
-  <si>
-    <t>ATIBAIA</t>
+    <t>RODOVIA PRESIDENTE C SN, K 79 G 3 P,0</t>
+  </si>
+  <si>
+    <t>1473710 / - / - / - / - / - / -</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>HJF0J75</t>
+  </si>
+  <si>
+    <t>JUNDIAI</t>
+  </si>
+  <si>
+    <t>Carrefour Com e Industria Ltda</t>
+  </si>
+  <si>
+    <t>VINHEDO</t>
+  </si>
+  <si>
+    <t>Estrada da Boiada 97,0</t>
+  </si>
+  <si>
+    <t>299167 / 299181 / - / - / - / - / - / -</t>
+  </si>
+  <si>
+    <t>SUPERMERCADOS DALBEN LTDA</t>
+  </si>
+  <si>
+    <t>EMPRESA BRASILEIRA DE BEBIDAS E ALIM.S/A</t>
+  </si>
+  <si>
+    <t>VALINHOS</t>
+  </si>
+  <si>
+    <t>AVENIDA INVERNADA,2.619</t>
+  </si>
+  <si>
+    <t>1226660 / - / - / - / - / - / -</t>
+  </si>
+  <si>
+    <t>SUPERMERCADOS DALBEN 09:00 HRS</t>
+  </si>
+  <si>
+    <t>ALESSANDRA DA SILVA FOLLI NOVAES</t>
+  </si>
+  <si>
+    <t>DPE0B20</t>
+  </si>
+  <si>
+    <t>AVENIDA ENGENHEIRO ANTONIO F P SOUZA, 3.900</t>
+  </si>
+  <si>
+    <t>299168 / 299169 / 299180 / - / - / - / - / - / -</t>
+  </si>
+  <si>
+    <t>WAL MART BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>RUA JACY TEIXEIRA CAMA, 940</t>
+  </si>
+  <si>
+    <t>299170 / 299186 / - / - / - / - / - / -</t>
+  </si>
+  <si>
+    <t>DORIVALI COM DIST PROD ALIM LTDA</t>
+  </si>
+  <si>
+    <t>Al Itatinga,125</t>
+  </si>
+  <si>
+    <t>299183 / - / - / - / - / - / -</t>
+  </si>
+  <si>
+    <t>EDSON GONÇALVEZ DOS SANTOS</t>
+  </si>
+  <si>
+    <t>EFO9188</t>
+  </si>
+  <si>
+    <t>PIRACICABA</t>
+  </si>
+  <si>
+    <t>WMS SUPERMERCADOS DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>AV DR CASSIO PASCHOAL PADOVANI 150..,0</t>
+  </si>
+  <si>
+    <t>292981 / 292992 / 292996 / - / - / - / - / - / -</t>
+  </si>
+  <si>
+    <t>AGENDAMENTO 14/10 WMS SUPERMERCADOS AS  07:00 HRS</t>
+  </si>
+  <si>
+    <t>JUCA DOCES &amp; FESTAS LTDA</t>
+  </si>
+  <si>
+    <t>AV RIO DAS PEDRAS,1.225</t>
+  </si>
+  <si>
+    <t>1473724 / - / - / - / - / - / -</t>
+  </si>
+  <si>
+    <t>CINTHIA NEGRINI FERNANDES</t>
+  </si>
+  <si>
+    <t>ITIRAPINA</t>
+  </si>
+  <si>
+    <t>AVENIDA 03,283</t>
+  </si>
+  <si>
+    <t>1682315, 1682224</t>
+  </si>
+  <si>
+    <t>JAQUELINE T CARVALHO EIRELI EPP</t>
+  </si>
+  <si>
+    <t>BROTAS</t>
+  </si>
+  <si>
+    <t>AVENIDA RODOLPHO GUIMARAES,585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAILTON RODRIGO DA SILVA </t>
+  </si>
+  <si>
+    <t>APS4127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIMEIRA </t>
+  </si>
+  <si>
+    <t>ESTORIL SOL FESTAS E DOCES LTDA</t>
+  </si>
+  <si>
+    <t>AMERICANA</t>
+  </si>
+  <si>
+    <t>AV. SAUDADE,187</t>
+  </si>
+  <si>
+    <t>1473682 / - / - / - / - / - / -</t>
+  </si>
+  <si>
+    <t>MANDURI FESTAS LTDA - ME</t>
+  </si>
+  <si>
+    <t>R. IACANGA,455</t>
+  </si>
+  <si>
+    <t>1473681 / - / - / - / - / - / -</t>
+  </si>
+  <si>
+    <t>V.F. SANDOVAL BOMBONIERE LTDA ME</t>
+  </si>
+  <si>
+    <t>SANTA BARBARA DOESTE</t>
+  </si>
+  <si>
+    <t>R. SANTA BARBARA,800</t>
+  </si>
+  <si>
+    <t>1473677 / - / - / - / - / - / -</t>
+  </si>
+  <si>
+    <t>LUIZ FILIPE MARCON</t>
+  </si>
+  <si>
+    <t>ESU5H70</t>
   </si>
   <si>
     <t>FEST CHOC COMERCIO DE EMBALAGENS LT</t>
@@ -149,59 +353,200 @@
     <t>1473675 / - / - / - / - / - / -</t>
   </si>
   <si>
-    <t>DANILO DONIZETE CARNIEL</t>
-  </si>
-  <si>
-    <t>JUNDIAI, SUMARE</t>
-  </si>
-  <si>
-    <t>CARREFOUR COMERCIO E INDUSTRIA LTDA</t>
-  </si>
-  <si>
-    <t>SALTO</t>
-  </si>
-  <si>
-    <t>R CAMPOS SALLES,725</t>
-  </si>
-  <si>
-    <t>297747 / 297846 / 297736 / 297740 / - / - / - / - / - / -</t>
-  </si>
-  <si>
-    <t>DICID ITU DOCES LTDA EPP</t>
-  </si>
-  <si>
-    <t>LAURO ALVES,98</t>
-  </si>
-  <si>
-    <t>1473688 / - / - / - / - / - / -</t>
-  </si>
-  <si>
-    <t>MARIANA PELLIS COMERCIO LTDA</t>
-  </si>
-  <si>
-    <t>AVENIDA DOUTOR ERMELINDO MAFFEI,816</t>
-  </si>
-  <si>
-    <t>1473716 / - / - / - / - / - / -</t>
-  </si>
-  <si>
-    <t>VANDA LUCIA MENDES COSTA ME</t>
-  </si>
-  <si>
-    <t>CABREUVA</t>
-  </si>
-  <si>
-    <t>RUA MARANHAO, 369</t>
-  </si>
-  <si>
-    <t>1473694 / - / - / - / - / - / -</t>
+    <t>DEUZELINO EVANGELISTA DA SILVA</t>
+  </si>
+  <si>
+    <t>DTE 2J80</t>
+  </si>
+  <si>
+    <t>Bairro</t>
+  </si>
+  <si>
+    <t>SUPERMERCADO SANTO ANTONIO M. GUACU LTDA</t>
+  </si>
+  <si>
+    <t>RUA SAO BENEDITO, 3</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO MATHEUS PALINI EIRELI</t>
+  </si>
+  <si>
+    <t>AGUAI</t>
+  </si>
+  <si>
+    <t>RUA CAPITAO SILVA BORGES,797</t>
+  </si>
+  <si>
+    <t>2288459 / - / - / - / - / - / -</t>
+  </si>
+  <si>
+    <t>BELA FLOR COMERCIO DE ALIMENTOS LTD</t>
+  </si>
+  <si>
+    <t>SAO JOAO DA BOA VISTA</t>
+  </si>
+  <si>
+    <t>AVENIDA BRASILIA,1.885</t>
+  </si>
+  <si>
+    <t>2288451 / - / - / - / - / - / -</t>
+  </si>
+  <si>
+    <t>NOVA FLOR COM DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>AVENIDA DONA GERTRUDES,114</t>
+  </si>
+  <si>
+    <t>2288415 / - / - / - / - / - / -</t>
+  </si>
+  <si>
+    <t>MARIANA GIANTOMASSI DELLA TORRE</t>
+  </si>
+  <si>
+    <t>SAO JOSE DO RIO PARDO</t>
+  </si>
+  <si>
+    <t>RUA FRANCISQUINHO DIAS,576</t>
+  </si>
+  <si>
+    <t>1682222, 1682312</t>
+  </si>
+  <si>
+    <t>2288502 / 2288413 / - / - / - / - / -</t>
+  </si>
+  <si>
+    <t>AVENIDA DEPUTADO EDUARDO VICENTE NASSER,700</t>
+  </si>
+  <si>
+    <t>2288560 / - / - / - / - / - / -</t>
+  </si>
+  <si>
+    <t>TORRES E MARINZEK COMERCIO DE DOCES ME</t>
+  </si>
+  <si>
+    <t>Mococa</t>
+  </si>
+  <si>
+    <t>Rua Imaculada Conceição, 174</t>
+  </si>
+  <si>
+    <t>1682321, 1682230</t>
+  </si>
+  <si>
+    <t>2288418 / 2288503 / - / - / - / - / -</t>
+  </si>
+  <si>
+    <t>ADRIANO MEDEIROS LUCENA</t>
+  </si>
+  <si>
+    <t>EZU 9C84</t>
+  </si>
+  <si>
+    <t>ROSANGELA CLEMENTE NECHAR RIO CLARO</t>
+  </si>
+  <si>
+    <t>RIO CLARO</t>
+  </si>
+  <si>
+    <t>AV 05.960</t>
+  </si>
+  <si>
+    <t>1473670 / - / - / - / - / - / -</t>
+  </si>
+  <si>
+    <t>SIMONE APARECIDA FRANCHINI EMBALAGE</t>
+  </si>
+  <si>
+    <t>ARARAS</t>
+  </si>
+  <si>
+    <t>AV. DA SAUDADE,121</t>
+  </si>
+  <si>
+    <t>1473693 / - / - / - / - / - / -</t>
+  </si>
+  <si>
+    <t>SOLDIE COMERCIO DE PRODUTOS ALIM LT</t>
+  </si>
+  <si>
+    <t>LEME</t>
+  </si>
+  <si>
+    <t>AV MAXIMIANO VILLA RIOS,1.120</t>
+  </si>
+  <si>
+    <t>1473725 / - / - / - / - / - / -</t>
+  </si>
+  <si>
+    <t>DEBORA A F C AUGUSTI</t>
+  </si>
+  <si>
+    <t>PIRASSUNUNGA</t>
+  </si>
+  <si>
+    <t>AVENIDA PAINGUAS,1.354</t>
+  </si>
+  <si>
+    <t>1682225, 1682317</t>
+  </si>
+  <si>
+    <t>DEBORA AF CAUGUST IME</t>
+  </si>
+  <si>
+    <t>RUA DUQUE DE CAXIAS,1.452</t>
+  </si>
+  <si>
+    <t>1682158, 1682256</t>
+  </si>
+  <si>
+    <t>ERICA CRISTINA DEPOLI SILVA</t>
+  </si>
+  <si>
+    <t>PORTO FERREIRA</t>
+  </si>
+  <si>
+    <t>RUA DONA BALBINA,760</t>
+  </si>
+  <si>
+    <t>1682223, 1682313</t>
+  </si>
+  <si>
+    <t>VIRGINIA TRALDI &amp; CIA LTDA ME</t>
+  </si>
+  <si>
+    <t>SANTA CRUZ DAS PALMEIRAS</t>
+  </si>
+  <si>
+    <t>RUA CORONEL PENTEADO,448</t>
+  </si>
+  <si>
+    <t>1682221, 1682311</t>
+  </si>
+  <si>
+    <t>MAZOLA EAMP BARTIUC LTDA</t>
+  </si>
+  <si>
+    <t>TAMBAU</t>
+  </si>
+  <si>
+    <t>RUA CORONEL JOAO DE CARVALHO,249</t>
+  </si>
+  <si>
+    <t>RAFA GUI CASA DE DOCES LTDA</t>
+  </si>
+  <si>
+    <t>SAO SIMAO</t>
+  </si>
+  <si>
+    <t>RUA EXPEDICIONARIOS,403</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,10 +566,17 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -238,7 +590,18 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,7 +612,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,8 +655,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -366,11 +735,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -382,37 +777,112 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -729,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2:M72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,469 +1259,2593 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="19">
+        <v>1452985</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="20">
+        <v>389.47</v>
+      </c>
+      <c r="K2" s="20">
+        <v>1</v>
+      </c>
+      <c r="L2" s="20">
+        <v>182.60499999999999</v>
+      </c>
+      <c r="M2" s="23"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="20">
+        <v>76</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="23"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20">
+        <v>65897910001306</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="20">
+        <v>1683965</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>1452985</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="20">
+        <v>2</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="20">
+        <v>293.89999999999998</v>
+      </c>
+      <c r="K7" s="20">
+        <v>2</v>
+      </c>
+      <c r="L7" s="20">
+        <v>84.256</v>
+      </c>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="20">
+        <v>33</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>1</v>
+      </c>
+      <c r="B9" s="20">
+        <v>45543915012783</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="20">
+        <v>1684871</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>2</v>
+      </c>
+      <c r="B10" s="20">
+        <v>46241741000670</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="20">
+        <v>1675939</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="23"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
+        <v>1452985</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="20">
+        <v>3</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="20">
+        <v>209.5</v>
+      </c>
+      <c r="K15" s="20">
+        <v>3</v>
+      </c>
+      <c r="L15" s="20">
+        <v>76.016000000000005</v>
+      </c>
+      <c r="M15" s="23"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="20">
+        <v>26</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="23"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
+        <v>1</v>
+      </c>
+      <c r="B17" s="20">
+        <v>45543915003369</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="20">
+        <v>1684870</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="23"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
+        <v>2</v>
+      </c>
+      <c r="B18" s="20">
+        <v>63960008932</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="20">
+        <v>1684867</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="23"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
+        <v>3</v>
+      </c>
+      <c r="B19" s="20">
+        <v>9183504000169</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="20">
+        <v>1684868</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="23"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="23"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="23"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="31">
+        <v>1432905</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="32">
+        <v>4</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="32">
+        <v>1909.94</v>
+      </c>
+      <c r="K23" s="32">
+        <v>1</v>
+      </c>
+      <c r="L23" s="32">
+        <v>98.948999999999998</v>
+      </c>
+      <c r="M23" s="29"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="29"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="31">
+        <v>1</v>
+      </c>
+      <c r="B25" s="32">
+        <v>93209765043789</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="32">
+        <v>1674412</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="29"/>
+    </row>
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="19"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
         <v>1451337</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B29" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D29" s="20">
+        <v>5</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="20">
+        <v>2406.16</v>
+      </c>
+      <c r="K29" s="20">
+        <v>1</v>
+      </c>
+      <c r="L29" s="20">
+        <v>106.812</v>
+      </c>
+      <c r="M29" s="23"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="23"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
+        <v>1</v>
+      </c>
+      <c r="B31" s="20">
+        <v>52449015000135</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="20">
+        <v>1683987</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="23"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="38">
+        <v>2</v>
+      </c>
+      <c r="B32" s="39">
+        <v>42744460000174</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="19">
+        <v>3</v>
+      </c>
+      <c r="B33" s="20">
+        <v>22354430000144</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="20">
+        <v>1682294</v>
+      </c>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="19">
+        <v>1451337</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="20">
+        <v>6</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="20">
+        <v>298.72000000000003</v>
+      </c>
+      <c r="K36" s="20">
+        <v>3</v>
+      </c>
+      <c r="L36" s="20">
+        <v>58.813000000000002</v>
+      </c>
+      <c r="M36" s="23"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="23"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="19">
+        <v>1</v>
+      </c>
+      <c r="B38" s="20">
+        <v>46969887000121</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" s="20">
+        <v>1683814</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="23"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="19">
+        <v>2</v>
+      </c>
+      <c r="B39" s="20">
+        <v>5521493000129</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="20">
+        <v>1683977</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="23"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="19">
+        <v>3</v>
+      </c>
+      <c r="B40" s="20">
+        <v>714971000101</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" s="20">
+        <v>1683969</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="23"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M42" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="19">
+        <v>1451337</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="20">
+        <v>7</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="H43" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="20">
+        <v>454.62</v>
+      </c>
+      <c r="K43" s="20">
+        <v>3</v>
+      </c>
+      <c r="L43" s="20">
+        <v>114.831</v>
+      </c>
+      <c r="M43" s="29"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="29"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="19">
+        <v>1</v>
+      </c>
+      <c r="B45" s="20">
+        <v>38826486000194</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H45" s="20">
+        <v>1683989</v>
+      </c>
+      <c r="I45" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="29"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="19">
+        <v>2</v>
+      </c>
+      <c r="B46" s="20">
+        <v>7096361000122</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H46" s="20">
+        <v>1683967</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="29"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="19">
+        <v>3</v>
+      </c>
+      <c r="B47" s="20">
+        <v>2424944000111</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="20">
+        <v>1683961</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="29"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M50" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="19">
+        <v>1450963</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="20">
+        <v>8</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="G51" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H51" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="20">
+        <v>395.17</v>
+      </c>
+      <c r="K51" s="20">
+        <v>7</v>
+      </c>
+      <c r="L51" s="20">
+        <v>402.18</v>
+      </c>
+      <c r="M51" s="19">
+        <v>548.03</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="11" t="s">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="19">
+        <v>1</v>
+      </c>
+      <c r="B53" s="20">
+        <v>5364327000166</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H53" s="20">
+        <v>1683058</v>
+      </c>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="19">
+        <v>2</v>
+      </c>
+      <c r="B54" s="20">
+        <v>42551131000107</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H54" s="20">
+        <v>1682318</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="19">
+        <v>3</v>
+      </c>
+      <c r="B55" s="20">
+        <v>40794385000120</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H55" s="20">
+        <v>1682314</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="19">
+        <v>4</v>
+      </c>
+      <c r="B56" s="20">
+        <v>21669581000129</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H56" s="20">
+        <v>1682316</v>
+      </c>
+      <c r="I56" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="19">
+        <v>5</v>
+      </c>
+      <c r="B57" s="20">
+        <v>18821588000100</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="I57" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="19">
+        <v>6</v>
+      </c>
+      <c r="B58" s="20">
+        <v>18821588000290</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="H58" s="20">
+        <v>1682220</v>
+      </c>
+      <c r="I58" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="19">
+        <v>7</v>
+      </c>
+      <c r="B59" s="20">
+        <v>26436712000141</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H59" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="I59" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9">
-        <v>454.62</v>
-      </c>
-      <c r="K2" s="9">
+      <c r="J61" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="K61" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="M61" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="19">
+        <v>1452985</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="20">
+        <v>9</v>
+      </c>
+      <c r="E62" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="F62" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="G62" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="29"/>
+      <c r="J62" s="20">
+        <v>1212.45</v>
+      </c>
+      <c r="K62" s="20">
+        <v>4</v>
+      </c>
+      <c r="L62" s="20">
+        <v>180.12700000000001</v>
+      </c>
+      <c r="M62" s="19">
+        <v>459.46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="19">
+        <v>1</v>
+      </c>
+      <c r="B64" s="20">
+        <v>1521155000136</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="H64" s="20">
+        <v>1683943</v>
+      </c>
+      <c r="I64" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="29"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="19">
+        <v>2</v>
+      </c>
+      <c r="B65" s="20">
+        <v>13000182000142</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H65" s="20">
+        <v>1683958</v>
+      </c>
+      <c r="I65" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="29"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="19">
         <v>3</v>
       </c>
-      <c r="L2" s="9">
-        <v>114.831</v>
-      </c>
-      <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="B66" s="20">
+        <v>32981998000734</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H66" s="20">
+        <v>1683991</v>
+      </c>
+      <c r="I66" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="29"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="38">
+        <v>4</v>
+      </c>
+      <c r="B67" s="39">
+        <v>7371259000350</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="G67" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="H67" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="I67" s="39"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="19">
+        <v>5</v>
+      </c>
+      <c r="B68" s="20">
+        <v>7371259000198</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="H68" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I68" s="20"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="38">
+        <v>6</v>
+      </c>
+      <c r="B69" s="39">
+        <v>9401538000182</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="G69" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="H69" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="I69" s="39"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="38">
+        <v>7</v>
+      </c>
+      <c r="B70" s="39">
+        <v>11502922000113</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="G70" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="H70" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="I70" s="39"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
+      <c r="M70" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="38">
         <v>8</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="B71" s="39">
+        <v>42097657000320</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="G71" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H71" s="39">
+        <v>1682226</v>
+      </c>
+      <c r="I71" s="39"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="39"/>
+      <c r="M71" s="39">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
-        <v>38826486000194</v>
-      </c>
-      <c r="C4" s="9" t="s">
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="38">
+        <v>9</v>
+      </c>
+      <c r="B72" s="39">
+        <v>42828468000119</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1683989</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="13"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9">
-        <v>7096361000122</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="9">
-        <v>1683967</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="13"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9">
-        <v>2424944000111</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="9">
-        <v>1683961</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="F72" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="G72" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="H72" s="39">
+        <v>1682329</v>
+      </c>
+      <c r="I72" s="39"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="39"/>
+      <c r="M72" s="39">
         <v>4</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>1451337</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="9">
-        <v>21</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="9">
-        <v>1059.53</v>
-      </c>
-      <c r="K9" s="9">
-        <v>4</v>
-      </c>
-      <c r="L9" s="9">
-        <v>171.47</v>
-      </c>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="B11" s="9">
-        <v>45543915022312</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="9">
-        <v>1682421</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>2</v>
-      </c>
-      <c r="B12" s="9">
-        <v>16927082000154</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1683974</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>3</v>
-      </c>
-      <c r="B13" s="9">
-        <v>44304265000159</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="9">
-        <v>1683982</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>4</v>
-      </c>
-      <c r="B14" s="9">
-        <v>9235423000165</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1683959</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="13"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="7"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="11"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="14"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="13"/>
+    </row>
+    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="7"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="11"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" s="7"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="11"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" s="7"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="11"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="11"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="11"/>
+    </row>
+    <row r="80" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="7"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="11"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" s="14"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="13"/>
+    </row>
+    <row r="83" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="7"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="11"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" s="7"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="11"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" s="7"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="11"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" s="7"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="7"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88" s="14"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="13"/>
+    </row>
+    <row r="89" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="7"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="17"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" s="7"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="17"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" s="7"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="17"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92" s="7"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="17"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" s="7"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="17"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94" s="7"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
